--- a/code/NNDL_MN10_SAMPLES_DISTRIBUITIONS.xlsx
+++ b/code/NNDL_MN10_SAMPLES_DISTRIBUITIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harjo\Workspace\UniPD\repo\3d_classification\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5CD23B-8619-4243-9AF9-E0A1BE9AE3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE856500-8D52-4FC4-B087-E48E45CFEEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF987BAC-AB0D-4C32-BA9C-87D58BA3652C}"/>
   </bookViews>
@@ -36,67 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>bathtub/test</t>
-  </si>
-  <si>
-    <t>bathtub/train</t>
-  </si>
-  <si>
-    <t>bed/test</t>
-  </si>
-  <si>
-    <t>bed/train</t>
-  </si>
-  <si>
-    <t>chair/train</t>
-  </si>
-  <si>
-    <t>desk/test</t>
-  </si>
-  <si>
-    <t>desk/train</t>
-  </si>
-  <si>
-    <t>dresser/test</t>
-  </si>
-  <si>
-    <t>dresser/train</t>
-  </si>
-  <si>
-    <t>monitor/test</t>
-  </si>
-  <si>
-    <t>monitor/train</t>
-  </si>
-  <si>
-    <t>night_stand/test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">night_stand/train </t>
-  </si>
-  <si>
-    <t>sofa/test</t>
-  </si>
-  <si>
-    <t>sofa/train</t>
-  </si>
-  <si>
-    <t>table/test</t>
-  </si>
-  <si>
-    <t>table/train</t>
-  </si>
-  <si>
-    <t>toilet/test</t>
-  </si>
-  <si>
-    <t>toilet/train</t>
-  </si>
-  <si>
-    <t>chair/test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>1) chose atmost 300</t>
   </si>
@@ -126,6 +66,39 @@
   </si>
   <si>
     <t>AFTER AUGMENTING</t>
+  </si>
+  <si>
+    <t>bathtub</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>dresser</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">night_stand </t>
+  </si>
+  <si>
+    <t>sofa</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>night_stand</t>
   </si>
 </sst>
 </file>
@@ -290,34 +263,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>bathtub/test</c:v>
+                  <c:v>bathtub</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bed/test</c:v>
+                  <c:v>bed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>chair/test</c:v>
+                  <c:v>chair</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>desk/test</c:v>
+                  <c:v>desk</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>dresser/test</c:v>
+                  <c:v>dresser</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>monitor/test</c:v>
+                  <c:v>monitor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>night_stand/test</c:v>
+                  <c:v>night_stand</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sofa/test</c:v>
+                  <c:v>sofa</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>table/test</c:v>
+                  <c:v>table</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>toilet/test</c:v>
+                  <c:v>toilet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -397,34 +370,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>bathtub/test</c:v>
+                  <c:v>bathtub</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bed/test</c:v>
+                  <c:v>bed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>chair/test</c:v>
+                  <c:v>chair</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>desk/test</c:v>
+                  <c:v>desk</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>dresser/test</c:v>
+                  <c:v>dresser</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>monitor/test</c:v>
+                  <c:v>monitor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>night_stand/test</c:v>
+                  <c:v>night_stand</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sofa/test</c:v>
+                  <c:v>sofa</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>table/test</c:v>
+                  <c:v>table</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>toilet/test</c:v>
+                  <c:v>toilet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -775,34 +748,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>bathtub/train</c:v>
+                  <c:v>bathtub</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bed/train</c:v>
+                  <c:v>bed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>chair/train</c:v>
+                  <c:v>chair</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>desk/train</c:v>
+                  <c:v>desk</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>dresser/train</c:v>
+                  <c:v>dresser</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>monitor/train</c:v>
+                  <c:v>monitor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>night_stand/train </c:v>
+                  <c:v>night_stand </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sofa/train</c:v>
+                  <c:v>sofa</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>table/train</c:v>
+                  <c:v>table</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>toilet/train</c:v>
+                  <c:v>toilet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -882,34 +855,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>bathtub/train</c:v>
+                  <c:v>bathtub</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bed/train</c:v>
+                  <c:v>bed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>chair/train</c:v>
+                  <c:v>chair</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>desk/train</c:v>
+                  <c:v>desk</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>dresser/train</c:v>
+                  <c:v>dresser</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>monitor/train</c:v>
+                  <c:v>monitor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>night_stand/train </c:v>
+                  <c:v>night_stand </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sofa/train</c:v>
+                  <c:v>sofa</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>table/train</c:v>
+                  <c:v>table</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>toilet/train</c:v>
+                  <c:v>toilet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1501,6 +1474,1358 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Train Set</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initial samples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$15:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>bathtub</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>chair</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>desk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dresser</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>monitor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>night_stand </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sofa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>table</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>toilet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B56-4278-9BB2-C2DF78E6476B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
+        <c:axId val="740487312"/>
+        <c:axId val="740486480"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AFTER AUGMENTING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:pattFill prst="narVert">
+                    <a:fgClr>
+                      <a:schemeClr val="accent2"/>
+                    </a:fgClr>
+                    <a:bgClr>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="20000"/>
+                        <a:lumOff val="80000"/>
+                      </a:schemeClr>
+                    </a:bgClr>
+                  </a:pattFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:innerShdw blurRad="114300">
+                      <a:schemeClr val="accent2"/>
+                    </a:innerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$15:$B$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>bathtub</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>bed</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>chair</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>desk</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>dresser</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>monitor</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>night_stand </c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>sofa</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>table</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>toilet</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$15:$F$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>848</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>930</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1176</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1032</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5B56-4278-9BB2-C2DF78E6476B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="740487312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740486480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="740486480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740487312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Train Set</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initial samples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$15:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>bathtub</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>chair</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>desk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dresser</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>monitor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>night_stand </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sofa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>table</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>toilet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-181A-467B-859D-A1D4BEB2BD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFTER AUGMENTING</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$15:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>bathtub</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>chair</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>desk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dresser</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>monitor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>night_stand </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sofa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>table</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>toilet</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1032</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-181A-467B-859D-A1D4BEB2BD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
+        <c:axId val="740487312"/>
+        <c:axId val="740486480"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="740487312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740486480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="740486480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740487312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1621,6 +2946,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3130,6 +4535,1044 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3241,6 +5684,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>89065</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>29687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F350C3E5-3D43-4C71-94BF-C118F40E27B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425532</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>98961</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FF3FD3-0A63-4CF1-926F-A3AAFFCDB309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3538,7 +6057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3548,8 +6067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A91CEE-8044-4606-8677-3A953E0E3C8C}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="77" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="77" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3565,24 +6084,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3601,7 +6120,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -3620,7 +6139,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -3639,7 +6158,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>86</v>
@@ -3658,7 +6177,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>86</v>
@@ -3677,7 +6196,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -3696,7 +6215,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>86</v>
@@ -3715,7 +6234,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -3734,7 +6253,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -3753,7 +6272,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -3782,24 +6301,24 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>106</v>
@@ -3817,7 +6336,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>515</v>
@@ -3835,7 +6354,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>889</v>
@@ -3853,7 +6372,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -3871,7 +6390,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -3889,7 +6408,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>465</v>
@@ -3907,7 +6426,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>200</v>
@@ -3925,7 +6444,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>680</v>
@@ -3943,7 +6462,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>392</v>
@@ -3961,7 +6480,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>344</v>
@@ -3989,7 +6508,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <f>C25+C12</f>
@@ -4002,7 +6521,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <f>C12/(C27)*100</f>
@@ -4015,7 +6534,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <f>C25/(C27)*100</f>
